--- a/biology/Zoologie/Animal_social/Animal_social.xlsx
+++ b/biology/Zoologie/Animal_social/Animal_social.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un animal social est un être vivant qui interagit beaucoup avec les autres membres de son espèce, et dont la vie et la reproduction dépendent fortement de la cohésion globale et de la propagation du groupe.
 </t>
